--- a/files/UnitsSymbolsDefinitions.xlsx
+++ b/files/UnitsSymbolsDefinitions.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Desktop\SAM\2023-06-07 Mollier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_Mollier\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A5A7EB-238B-4E4F-9CFE-5A2C0504713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8223FC-C127-4BE5-8349-354C573DEDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C63394A-953E-4E96-9ADD-3672CBFB0AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Live" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Equations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="131">
   <si>
     <t>CodeName</t>
   </si>
@@ -87,9 +87,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>slope coefficient Epsilon</t>
-  </si>
-  <si>
     <t>sensible heat gain/load</t>
   </si>
   <si>
@@ -157,6 +154,348 @@
   </si>
   <si>
     <t>specificHeat_Water</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Specific Volume</t>
+  </si>
+  <si>
+    <t>specificVolume</t>
+  </si>
+  <si>
+    <t>Specific Volume usually dry air</t>
+  </si>
+  <si>
+    <t>Specifisches Volumen</t>
+  </si>
+  <si>
+    <t>Objętość własciwa</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>kg/kg</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content of water and water vapour resepctively in humid air mixture </t>
+  </si>
+  <si>
+    <t>content of water vapour in saturated mixture of humid air</t>
+  </si>
+  <si>
+    <t>Wasserdampfgehalt im gesättigten Feuchtluftgemisch</t>
+  </si>
+  <si>
+    <t>saturationHumidityRatio</t>
+  </si>
+  <si>
+    <t>Saturation Humidity Ratio</t>
+  </si>
+  <si>
+    <t>humidityRatio</t>
+  </si>
+  <si>
+    <t>Humidty Ratio</t>
+  </si>
+  <si>
+    <t>Wassergehalt</t>
+  </si>
+  <si>
+    <t>Zawarość wilgoci, Wilgotność bezwzględna</t>
+  </si>
+  <si>
+    <t>J/(kg*K)</t>
+  </si>
+  <si>
+    <t>m³/kg</t>
+  </si>
+  <si>
+    <t>slope coefficient Epsilon from Mollier diagram</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>dryBulbTemperature</t>
+  </si>
+  <si>
+    <t>Dry Bulb Temperature</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura </t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>relativeHumidity</t>
+  </si>
+  <si>
+    <t>Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t>Relative Feuchte</t>
+  </si>
+  <si>
+    <t>Wilgotność Względna</t>
+  </si>
+  <si>
+    <t>Relative humidity (0 - 100), RH</t>
+  </si>
+  <si>
+    <t>https://symbl.cc/en/unicode/blocks/mathematical-alphanumeric-symbols/#subblock-1D6E2</t>
+  </si>
+  <si>
+    <t>t𝝉</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Absolute Temperature</t>
+  </si>
+  <si>
+    <t>absoluteTemperature</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Thermodynamische absolute Temperatur</t>
+  </si>
+  <si>
+    <t>Temperatura absolutna</t>
+  </si>
+  <si>
+    <t>Wet Bulb temperature</t>
+  </si>
+  <si>
+    <t>wetBulbTemperature</t>
+  </si>
+  <si>
+    <t>Feuchtkugeltemperatur tf</t>
+  </si>
+  <si>
+    <t>temperatura termometru mokrego</t>
+  </si>
+  <si>
+    <t>saturationTemperature</t>
+  </si>
+  <si>
+    <t>Saturation Temperature</t>
+  </si>
+  <si>
+    <t>Sättingungstemperatur</t>
+  </si>
+  <si>
+    <t>Temperatura nasycenia</t>
+  </si>
+  <si>
+    <t>Dew Point Temperature</t>
+  </si>
+  <si>
+    <t>dewPointTemperature</t>
+  </si>
+  <si>
+    <t>Dew Point Temperature, by x-const</t>
+  </si>
+  <si>
+    <t>Taupunkttemperatur</t>
+  </si>
+  <si>
+    <t>Temperatura punktu rosy</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Enthalpy</t>
+  </si>
+  <si>
+    <t>enthalpy</t>
+  </si>
+  <si>
+    <t>J/kg</t>
+  </si>
+  <si>
+    <t>Entalpia</t>
+  </si>
+  <si>
+    <t>Specific Enthalpy</t>
+  </si>
+  <si>
+    <t>Specifische Enthalpie</t>
+  </si>
+  <si>
+    <t>t_wb</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Absolute pressure</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>Absoluter Druck</t>
+  </si>
+  <si>
+    <t>Absolute pressure, atmospheric pressure</t>
+  </si>
+  <si>
+    <t>Ciśnienie absolutne, atmosferyczne</t>
+  </si>
+  <si>
+    <t>Atmospheric pressure for 0.1013 Mpa</t>
+  </si>
+  <si>
+    <t>Partialdruck des trockenen Luftanteils im Feuchtgemisch</t>
+  </si>
+  <si>
+    <t>Partial Pressure of Dry Air</t>
+  </si>
+  <si>
+    <t>partialDryAirPressure</t>
+  </si>
+  <si>
+    <t>Ciśnienie cząsteczkowe powietrza suchego</t>
+  </si>
+  <si>
+    <t>Ciśnienie cząsteczkowe pary wodnej</t>
+  </si>
+  <si>
+    <t>partialVapourPressure</t>
+  </si>
+  <si>
+    <t>Partial Vapour Pressure</t>
+  </si>
+  <si>
+    <t>Partialdruck des Wasserdampfes (absolut)</t>
+  </si>
+  <si>
+    <t>Ciśnienie nasycenia</t>
+  </si>
+  <si>
+    <t>Sättingungsdruck</t>
+  </si>
+  <si>
+    <t>Saturation Vapour Pressure</t>
+  </si>
+  <si>
+    <t>saturationVapourPressure</t>
+  </si>
+  <si>
+    <t>Spezifische Wärmekapazität</t>
+  </si>
+  <si>
+    <t>Ciepło właściwe</t>
+  </si>
+  <si>
+    <t>Współczynnik kierunkowy</t>
+  </si>
+  <si>
+    <t>1.  Dalton's Law</t>
+  </si>
+  <si>
+    <t>2. Claperon law</t>
+  </si>
+  <si>
+    <t>dry air</t>
+  </si>
+  <si>
+    <t>indywidualna stala gazowa powietrza suchego</t>
+  </si>
+  <si>
+    <t>vapour</t>
+  </si>
+  <si>
+    <t>indywidualna stala gazowa pary wodnej</t>
   </si>
 </sst>
 </file>
@@ -179,13 +518,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,10 +557,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +580,1065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1783080" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39DBF3F-4078-0094-C2F8-B7226A25BB61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="175260" y="560070"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39DBF3F-4078-0094-C2F8-B7226A25BB61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="175260" y="560070"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝=𝑝_𝐿+𝑝_𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1783080" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB715CF-4912-4BD4-ADD4-AF0DEEFFC99F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="1123950"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑝</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> ∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> m * R * T</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB715CF-4912-4BD4-ADD4-AF0DEEFFC99F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="1123950"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 ∗𝑉=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> m * R * T</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1783080" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE3C08B-CD14-4317-A168-ABF5D89A8E5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="1645920"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑝</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> ∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑚</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>* </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> *</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>T</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE3C08B-CD14-4317-A168-ABF5D89A8E5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="1645920"/>
+              <a:ext cx="1783080" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝_𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ∗𝑉=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚_𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>* </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅_𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> *</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>T</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1577340" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B57785-503C-4320-831B-46E46E06F94B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="655320" y="2011680"/>
+              <a:ext cx="1577340" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> = 287 J/(kg K)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B57785-503C-4320-831B-46E46E06F94B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="655320" y="2011680"/>
+              <a:ext cx="1577340" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅_𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> = 287 J/(kg K)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1577340" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20BFFB3-D606-47B5-91F7-CCAB16C449D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2743200"/>
+              <a:ext cx="1577340" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑊</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> = 462 J/(kg K)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20BFFB3-D606-47B5-91F7-CCAB16C449D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2743200"/>
+              <a:ext cx="1577340" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> = 462 J/(kg K)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,44 +1952,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB1E87E-8316-4FEE-BF54-572F08DF830D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -597,90 +2007,426 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -692,12 +2438,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B15465-63F3-4654-B5C5-6039909803E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="141" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/files/UnitsSymbolsDefinitions.xlsx
+++ b/files/UnitsSymbolsDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_Mollier\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8223FC-C127-4BE5-8349-354C573DEDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144785B0-6E0B-47C7-8615-3DDEECF90E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C63394A-953E-4E96-9ADD-3672CBFB0AC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9C63394A-953E-4E96-9ADD-3672CBFB0AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Live" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>CodeName</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Specific Heat</t>
-  </si>
-  <si>
-    <t>specific heat  at Constant pressure</t>
   </si>
   <si>
     <t>cpw</t>
@@ -497,12 +494,30 @@
   <si>
     <t>indywidualna stala gazowa pary wodnej</t>
   </si>
+  <si>
+    <t>l - dry air</t>
+  </si>
+  <si>
+    <t>w - water vapour</t>
+  </si>
+  <si>
+    <t>saturated air enhalpy</t>
+  </si>
+  <si>
+    <t>result = specificHeat_Air * dryBulbTemperature + saturationHumidityRatio * (vapourizationLatentHeat + specificHeat_WaterVapour * dryBulbTemperature) + ((humidityRatio - saturationHumidityRatio) * specificHeat_Water * dryBulbTemperature);</t>
+  </si>
+  <si>
+    <t>specificHeat_Air * dryBulbTemperature + humidityRatio * (vapourizationLatentHeat + specificHeat_WaterVapour * dryBulbTemperature)</t>
+  </si>
+  <si>
+    <t>specific heat  at constant pressure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +528,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,14 +579,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +800,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1783080" cy="172227"/>
@@ -925,7 +948,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1783080" cy="172227"/>
@@ -1284,7 +1307,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1577340" cy="172227"/>
@@ -1457,7 +1480,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1577340" cy="172227"/>
@@ -1629,6 +1652,1154 @@
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
                 <a:t> = 462 J/(kg K)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1027461" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B1C31-6906-3BBF-D34A-AF816898206E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="678180" y="3501390"/>
+              <a:ext cx="1027461" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B1C31-6906-3BBF-D34A-AF816898206E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="678180" y="3501390"/>
+              <a:ext cx="1027461" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℎ= ℎ_𝐿+𝑥∗ℎ_𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768672" cy="182614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BBD339-3348-4180-90A0-C87EABD67A01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="678180" y="4019550"/>
+              <a:ext cx="768672" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BBD339-3348-4180-90A0-C87EABD67A01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="678180" y="4019550"/>
+              <a:ext cx="768672" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ_𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= 𝑐_𝑝𝐿∗𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1179362" cy="182614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9B4764-17F2-44E3-BE6E-3DFF412C7124}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="4225290"/>
+              <a:ext cx="1179362" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑊</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑟</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>0+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑝𝑊</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑡</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9B4764-17F2-44E3-BE6E-3DFF412C7124}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="4225290"/>
+              <a:ext cx="1179362" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℎ_𝑊</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑟0+𝑐_𝑝𝑊∗𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2418867" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AA1505-A9A9-4B42-BB39-5C57799BEE4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1280160" y="4408170"/>
+              <a:ext cx="2418867" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑟</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0−</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑣𝑎𝑝𝑜𝑢𝑟𝑖𝑧𝑎𝑡𝑖𝑜𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐿𝑎𝑡𝑒𝑛𝑡</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐻𝑒𝑎𝑡</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>  2501</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AA1505-A9A9-4B42-BB39-5C57799BEE4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1280160" y="4408170"/>
+              <a:ext cx="2418867" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟0−𝑣𝑎𝑝𝑜𝑢𝑟𝑖𝑧𝑎𝑡𝑖𝑜𝑛 𝐿𝑎𝑡𝑒𝑛𝑡 𝐻𝑒𝑎𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  2501</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2296911" cy="182614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E119D7BF-E99C-45BE-A81B-5AA42A979A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1234440" y="4572000"/>
+              <a:ext cx="2296911" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑊</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB" sz="1100" smtClean="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>specificHeat</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB" sz="1100" smtClean="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB" sz="1100" smtClean="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>WaterVapour</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="0" smtClean="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> 1.86</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E119D7BF-E99C-45BE-A81B-5AA42A979A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1234440" y="4572000"/>
+              <a:ext cx="2296911" cy="182614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐_𝑝𝑊−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>specificHeat_WaterVapour</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 1.86</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -1954,9 +3125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB1E87E-8316-4FEE-BF54-572F08DF830D}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,33 +3178,33 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2044,76 +3215,76 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
         <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2135,217 +3306,217 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>107</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2365,68 +3536,68 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2438,47 +3609,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B15465-63F3-4654-B5C5-6039909803E7}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>130</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
